--- a/biology/Botanique/Cornus_(plante)/Cornus_(plante).xlsx
+++ b/biology/Botanique/Cornus_(plante)/Cornus_(plante).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cornus est un genre botanique composé de 30 à 50 espèces d'arbres et arbustes à feuilles caduques, parfois persistantes, de la famille des Cornaceae. Les individus de ce genre sont appelés cornouiller ou parfois cornelier.
 Le genre se répartit entre un et neuf sous-genres (selon les différentes interprétations botaniques).
@@ -512,10 +524,12 @@
           <t>Phytonymie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cornouiller dérive avec un suffixe diminutif de cornus (littéralement « cornu »), qui désigne en latin cet arbuste au bois dur comme de la corne[1].
-Il est connu sous le nom vernaculaire anglais de dogwood (« bois de chien »). Une explication populaire de ce nom est que son écorce était jadis utilisée en décoction pour laver les chiens souffrant de la gale. Cependant, une explication plus probable est que ce nom est une contraction de daggerwood (« bois de dague »), en référence à son bois très dur utilisé autrefois pour fabriquer des fourreaux de dagues, des flèches, des lances, puis des manches d'outils[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cornouiller dérive avec un suffixe diminutif de cornus (littéralement « cornu »), qui désigne en latin cet arbuste au bois dur comme de la corne.
+Il est connu sous le nom vernaculaire anglais de dogwood (« bois de chien »). Une explication populaire de ce nom est que son écorce était jadis utilisée en décoction pour laver les chiens souffrant de la gale. Cependant, une explication plus probable est que ce nom est une contraction de daggerwood (« bois de dague »), en référence à son bois très dur utilisé autrefois pour fabriquer des fourreaux de dagues, des flèches, des lances, puis des manches d'outils.
 </t>
         </is>
       </c>
@@ -546,16 +560,55 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Sous-genre Cornus
-Fleurs à involucre caduc
+          <t>Sous-genre Cornus</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Fleurs à involucre caduc
 Cornus chinensis (cornouiller chinois), Chine.
 Cornus mas L. (cornouiller mâle), Méditerranée.
 Cornus officinalis (cornouiller officinal), Japon.
 Cornus sessilis Torr. ex Dur. (cornouiller à fruits noirs), Californie.
 Cornus eydeana (Chine, découvert en 2002)
-Cornus volkensii (Afrique)
-Sous-genre Swida
-Fleurs sans involucre
+Cornus volkensii (Afrique)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Cornus_(plante)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cornus_(plante)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Classification des cornouillers</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Sous-genre Swida</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Fleurs sans involucre
 Cornus alba
 Cornus alternifolia L. f. - cornouiller alterniflore
 Cornus amomum P. Mill.
@@ -582,14 +635,82 @@
 Cornus sericea
 Cornus ulotricha
 Cornus walteri
-Cornus wilsoniana
-Sous-genre Chamaepericlymenum
-Sous-arbrisseaux rampants à stolons ligneux
+Cornus wilsoniana</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Cornus_(plante)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cornus_(plante)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Classification des cornouillers</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Sous-genre Chamaepericlymenum</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Sous-arbrisseaux rampants à stolons ligneux
 Cornus canadensis L. — cornouiller du Canada
 Cornus suecica L.
-Cornus unalasckensis (Cornus canadensis × Cornus suecica)
-Sous-genre Benthamidia
-Grappes de fleurs discrètes, généralement verdâtres, entourées de bractées pétaloïdes
+Cornus unalasckensis (Cornus canadensis × Cornus suecica)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Cornus_(plante)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cornus_(plante)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Classification des cornouillers</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Sous-genre Benthamidia</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Grappes de fleurs discrètes, généralement verdâtres, entourées de bractées pétaloïdes
 Cornus angustata
 Cornus capitata — cornouiller de l'Himalaya
 Cornus florida L. — cornouiller à fleurs
@@ -600,31 +721,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Cornus_(plante)</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Cornus_(plante)</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Cornus_(plante)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cornus_(plante)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Hybrides</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Cornus × acadiensis Fern.
 Cornus × arnoldiana Rehd.
@@ -635,38 +758,113 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Cornus_(plante)</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Cornus_(plante)</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Cornus_(plante)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cornus_(plante)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Symbolique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chez les Romains
-Lorsque les Romains déclaraient la guerre, un prêtre se rendait à la frontière ennemie, une javeline de cornouiller sanguin à la main, pour bien marquer les intentions belliqueuses.
-Calendrier républicain
-Dans le calendrier républicain, le Cournouiller était le nom attribué au 2e jour du mois de ventôse[3].
-Coutumes liées au cornouiller
-En Occitanie, la floraison et la fructification du cornouiller mâle (cornus mas) ont constitué une sorte de convention collective avant la lettre. La floraison indiquait la période à partir de laquelle les servantes des fermières n'étaient plus tenues de ravauder, filer ou tricoter après le repas du soir. Inversement, la maturité des fruits imposait cette obligation. En langue occitane, la prescription se formulait en ces termes : « Comma roja, veilla hoja. Quand la comma a florit la veillada a falit. »
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Chez les Romains</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lorsque les Romains déclaraient la guerre, un prêtre se rendait à la frontière ennemie, une javeline de cornouiller sanguin à la main, pour bien marquer les intentions belliqueuses.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Cornus_(plante)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cornus_(plante)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Symbolique</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Calendrier républicain</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans le calendrier républicain, le Cournouiller était le nom attribué au 2e jour du mois de ventôse.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Cornus_(plante)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cornus_(plante)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Symbolique</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Coutumes liées au cornouiller</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En Occitanie, la floraison et la fructification du cornouiller mâle (cornus mas) ont constitué une sorte de convention collective avant la lettre. La floraison indiquait la période à partir de laquelle les servantes des fermières n'étaient plus tenues de ravauder, filer ou tricoter après le repas du soir. Inversement, la maturité des fruits imposait cette obligation. En langue occitane, la prescription se formulait en ces termes : « Comma roja, veilla hoja. Quand la comma a florit la veillada a falit. »
 </t>
         </is>
       </c>
